--- a/biology/Botanique/Drosera_adelae/Drosera_adelae.xlsx
+++ b/biology/Botanique/Drosera_adelae/Drosera_adelae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drosera adelae est une espèce de plantes carnivores de la famille des Droseraceae. C'est une des rares drosera aux fleurs rouges[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera adelae est une espèce de plantes carnivores de la famille des Droseraceae. C'est une des rares drosera aux fleurs rouges.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante terrestre, vivace, de 15 à 20 cm de haut avec des racines fibreuses.
 Les feuilles sont lancéolées et acuminées, de 10 à 25 cm de long et 10 mm de large, d’un vert pâle. Elles possèdent des poils glanduleux clairsemés. Le limbe est glanduleux sur le dessus, glabre sur le dessous. Les feuilles disposées en rosette se déroulent progressivement, elles prennent une teinte rougissante en fonction de la chaleur.
@@ -544,7 +558,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’agit d’une espèce de climat tropical humide, sa répartition géographique est limitée au Nord Ouest du Queensland à 100 km au sud-est de Cairns. Drosera adelae pousse dans les endroits marécageux, sous les arbres, dans les collines autour de Rockingham Bay, secteur montagneux aux précipitations élevées. On connaît une forme naturelle de cette espèce.
 </t>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de Drosera issue d'un climat chaud et tropical, demande des conditions de culture assez particulière vis a vis des autres espèces de son genre. Drosera adelae réclame une ambiance chaude, et surtout très humide. C'est souvent cette négligence au niveau du climat qui est la cause d'un fort taux de mortalité dans les collections de particulier. Pendant la période de repos (l'hiver), Drosera adelae peut être mise à l'extérieur. Elle peut supporter de petites gelées. La mettre dehors permet de lui assurer une période de repos plus intense qui la rendra plus vigoureuse pendant le reste de l'année.
 La meilleure façon de cultiver cette plante dans de bonnes conditions est de la mettre en culture dans un terrarium approprié. Elle pourra être mise en culture avec certaines espèces de Drosera issues de la même région, comme Drosera prolifera et Drosera shizandra. On peut également mettre du sphagnum (sphaigne vivante) en surface, ce qui augmentera l’apparition de rejet. Si Drosera adelae se plaît dans son endroit de culture, il pourra alors se multiplier aisément et montrer toute sa splendeur en augmentant sa population.
